--- a/data/nzd0503/nzd0503.xlsx
+++ b/data/nzd0503/nzd0503.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H365"/>
+  <dimension ref="A1:H368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10411,6 +10411,90 @@
       <c r="H365" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>333.7865217391304</v>
+      </c>
+      <c r="C366" t="n">
+        <v>325.19</v>
+      </c>
+      <c r="D366" t="n">
+        <v>326.62</v>
+      </c>
+      <c r="E366" t="n">
+        <v>322.75</v>
+      </c>
+      <c r="F366" t="n">
+        <v>322.96</v>
+      </c>
+      <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>319.671304347826</v>
+      </c>
+      <c r="C367" t="n">
+        <v>337.74</v>
+      </c>
+      <c r="D367" t="n">
+        <v>326.8128571428572</v>
+      </c>
+      <c r="E367" t="n">
+        <v>326.0328571428572</v>
+      </c>
+      <c r="F367" t="n">
+        <v>331.51</v>
+      </c>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:14:45+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>342.6195652173913</v>
+      </c>
+      <c r="C368" t="n">
+        <v>340.87</v>
+      </c>
+      <c r="D368" t="n">
+        <v>336.4885714285714</v>
+      </c>
+      <c r="E368" t="n">
+        <v>337.6885714285714</v>
+      </c>
+      <c r="F368" t="n">
+        <v>337.17</v>
+      </c>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10425,7 +10509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B424"/>
+  <dimension ref="A1:B427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14673,6 +14757,36 @@
       </c>
       <c r="B424" t="n">
         <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -14841,28 +14955,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.213984879295703</v>
+        <v>-1.055080541499871</v>
       </c>
       <c r="J2" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K2" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01659351414742682</v>
+        <v>0.01267885288232873</v>
       </c>
       <c r="M2" t="n">
-        <v>54.39920613065192</v>
+        <v>54.31392156475511</v>
       </c>
       <c r="N2" t="n">
-        <v>4089.211329965311</v>
+        <v>4095.202630225782</v>
       </c>
       <c r="O2" t="n">
-        <v>63.94694152158734</v>
+        <v>63.99377024543703</v>
       </c>
       <c r="P2" t="n">
-        <v>294.7150420537536</v>
+        <v>292.9431869000403</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -14918,28 +15032,28 @@
         <v>0.0321</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.824396405146822</v>
+        <v>-1.721379562807985</v>
       </c>
       <c r="J3" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K3" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08762067057434741</v>
+        <v>0.07908042647061464</v>
       </c>
       <c r="M3" t="n">
-        <v>24.29912661154408</v>
+        <v>24.29622876792954</v>
       </c>
       <c r="N3" t="n">
-        <v>1533.050294076242</v>
+        <v>1539.589446738653</v>
       </c>
       <c r="O3" t="n">
-        <v>39.15418616286441</v>
+        <v>39.23760245910361</v>
       </c>
       <c r="P3" t="n">
-        <v>334.7622209606853</v>
+        <v>333.5754443683307</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -14995,28 +15109,28 @@
         <v>0.0368</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.190459755901356</v>
+        <v>-1.136939309755103</v>
       </c>
       <c r="J4" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K4" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2176892122174684</v>
+        <v>0.1999903219608898</v>
       </c>
       <c r="M4" t="n">
-        <v>12.08089482771329</v>
+        <v>12.18310187001538</v>
       </c>
       <c r="N4" t="n">
-        <v>235.2492571990373</v>
+        <v>240.6828447535973</v>
       </c>
       <c r="O4" t="n">
-        <v>15.33783743553951</v>
+        <v>15.51395645068006</v>
       </c>
       <c r="P4" t="n">
-        <v>332.1023527084408</v>
+        <v>331.5029446726079</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -15072,28 +15186,28 @@
         <v>0.0401</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.9422360469391646</v>
+        <v>-0.8987832289152689</v>
       </c>
       <c r="J5" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K5" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1956191332604209</v>
+        <v>0.1794258605573147</v>
       </c>
       <c r="M5" t="n">
-        <v>10.40959826413855</v>
+        <v>10.51514055562584</v>
       </c>
       <c r="N5" t="n">
-        <v>174.3905825949329</v>
+        <v>177.9066964699988</v>
       </c>
       <c r="O5" t="n">
-        <v>13.20570265434342</v>
+        <v>13.33816690816241</v>
       </c>
       <c r="P5" t="n">
-        <v>330.63770270699</v>
+        <v>330.1613522153131</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -15149,28 +15263,28 @@
         <v>0.0316</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7905095563479401</v>
+        <v>-0.7535801244012039</v>
       </c>
       <c r="J6" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K6" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1022670854232891</v>
+        <v>0.09409509057371157</v>
       </c>
       <c r="M6" t="n">
-        <v>13.05274646068926</v>
+        <v>13.09810730816608</v>
       </c>
       <c r="N6" t="n">
-        <v>262.0581664782794</v>
+        <v>263.3000785699196</v>
       </c>
       <c r="O6" t="n">
-        <v>16.18821072503936</v>
+        <v>16.22652392134309</v>
       </c>
       <c r="P6" t="n">
-        <v>331.6401762632124</v>
+        <v>331.2358546344249</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -15229,7 +15343,7 @@
         <v>-0.3722889448919544</v>
       </c>
       <c r="J7" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K7" t="n">
         <v>304</v>
@@ -15284,7 +15398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H365"/>
+  <dimension ref="A1:H368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28654,6 +28768,120 @@
         </is>
       </c>
     </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>-45.78817285936992,170.74124160399654</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>-45.78875561239142,170.74089308606366</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>-45.789368544282674,170.74069297535345</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>-45.789966951936535,170.74042758350956</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>-45.79057933267632,170.74020806138478</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>-45.78813632091217,170.74106774901028</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>-45.78878655723392,170.74104830925103</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>-45.78936899616149,170.74069537008629</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>-45.7899747000522,170.7404683258917</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>-45.79059711377115,170.740315046588</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:14:45+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>-45.78819572433225,170.74135039937022</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>-45.78879427491922,170.74108702231294</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>-45.789391667025626,170.74081551477187</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>-45.79000220945582,170.74061298094622</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>-45.79060888459349,170.7403858695807</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0503/nzd0503.xlsx
+++ b/data/nzd0503/nzd0503.xlsx
@@ -14800,7 +14800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14891,35 +14891,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -14978,27 +14983,28 @@
       <c r="P2" t="n">
         <v>292.9431869000403</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.7371304695184 -45.78730875436449, 170.74796021634384 -45.789584647433095)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.7371304695184</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.78730875436449</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.7479602163438</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.7895846474331</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.7425453429311</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.78844670089879</v>
       </c>
     </row>
@@ -15055,27 +15061,28 @@
       <c r="P3" t="n">
         <v>333.5754443683307</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.73687107463067 -45.78795371093406, 170.74774616976399 -45.79012159105382)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.7368710746307</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.78795371093406</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.747746169764</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.79012159105382</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.7423086221973</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.78903765099394</v>
       </c>
     </row>
@@ -15132,27 +15139,28 @@
       <c r="P4" t="n">
         <v>331.5029446726079</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.73663734943463 -45.788603177930305, 170.74755535213285 -45.790663219265674)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.7366373494346</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.78860317793031</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.7475553521328</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.79066321926567</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.7420963507838</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.78963319859799</v>
       </c>
     </row>
@@ -15209,27 +15217,28 @@
       <c r="P5" t="n">
         <v>330.1613522153131</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.73642210477567 -45.789205135633836, 170.74733435905273 -45.79128019976234)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.7364221047757</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.78920513563384</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.7473343590527</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.79128019976234</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.7418782319142</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.79024266769809</v>
       </c>
     </row>
@@ -15286,27 +15295,28 @@
       <c r="P6" t="n">
         <v>331.2358546344249</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.7361669511885 -45.78990761310154, 170.74716921999408 -45.79173605602804)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.7361669511885</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.78990761310154</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.7471692199941</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.79173605602804</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.7416680855913</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.7908218345648</v>
       </c>
     </row>
@@ -15363,27 +15373,28 @@
       <c r="P7" t="n">
         <v>396.6109660124171</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (170.7359751692328 -45.79062320039064, 170.7470606466413 -45.79218728348289)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>170.7359751692328</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-45.79062320039064</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>170.7470606466413</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-45.79218728348289</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>170.7415179079371</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-45.79140524193676</v>
       </c>
     </row>

--- a/data/nzd0503/nzd0503.xlsx
+++ b/data/nzd0503/nzd0503.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H368"/>
+  <dimension ref="A1:H372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10493,6 +10493,124 @@
       </c>
       <c r="G368" t="inlineStr"/>
       <c r="H368" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>344.0808695652174</v>
+      </c>
+      <c r="C369" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="D369" t="n">
+        <v>336.2557142857143</v>
+      </c>
+      <c r="E369" t="n">
+        <v>330.8057142857143</v>
+      </c>
+      <c r="F369" t="n">
+        <v>333</v>
+      </c>
+      <c r="G369" t="n">
+        <v>386.6566666666667</v>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>340.8447826086957</v>
+      </c>
+      <c r="C370" t="n">
+        <v>341.75</v>
+      </c>
+      <c r="D370" t="n">
+        <v>343.52</v>
+      </c>
+      <c r="E370" t="n">
+        <v>337.06</v>
+      </c>
+      <c r="F370" t="n">
+        <v>343.39</v>
+      </c>
+      <c r="G370" t="n">
+        <v>367.4166666666667</v>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr"/>
+      <c r="C371" t="n">
+        <v>309.27</v>
+      </c>
+      <c r="D371" t="n">
+        <v>315.8414285714285</v>
+      </c>
+      <c r="E371" t="n">
+        <v>313.2314285714286</v>
+      </c>
+      <c r="F371" t="n">
+        <v>314.71</v>
+      </c>
+      <c r="G371" t="n">
+        <v>380.05</v>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>350.4704347826087</v>
+      </c>
+      <c r="C372" t="n">
+        <v>341.06</v>
+      </c>
+      <c r="D372" t="n">
+        <v>342.02</v>
+      </c>
+      <c r="E372" t="n">
+        <v>341.32</v>
+      </c>
+      <c r="F372" t="n">
+        <v>330.74</v>
+      </c>
+      <c r="G372" t="n">
+        <v>379.7566666666667</v>
+      </c>
+      <c r="H372" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10509,7 +10627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B427"/>
+  <dimension ref="A1:B432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14787,6 +14905,56 @@
       </c>
       <c r="B427" t="n">
         <v>0.33</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2025-04-02 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>-0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -14960,28 +15128,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.055080541499871</v>
+        <v>-0.8723606235772107</v>
       </c>
       <c r="J2" t="n">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K2" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01267885288232873</v>
+        <v>0.008730977845159638</v>
       </c>
       <c r="M2" t="n">
-        <v>54.31392156475511</v>
+        <v>54.31090837439534</v>
       </c>
       <c r="N2" t="n">
-        <v>4095.202630225782</v>
+        <v>4119.304318270147</v>
       </c>
       <c r="O2" t="n">
-        <v>63.99377024543703</v>
+        <v>64.18180675448571</v>
       </c>
       <c r="P2" t="n">
-        <v>292.9431869000403</v>
+        <v>290.8841620861018</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15038,28 +15206,28 @@
         <v>0.0321</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.721379562807985</v>
+        <v>-1.59814881772722</v>
       </c>
       <c r="J3" t="n">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K3" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07908042647061464</v>
+        <v>0.06945434541529449</v>
       </c>
       <c r="M3" t="n">
-        <v>24.29622876792954</v>
+        <v>24.27589507036171</v>
       </c>
       <c r="N3" t="n">
-        <v>1539.589446738653</v>
+        <v>1544.685132177545</v>
       </c>
       <c r="O3" t="n">
-        <v>39.23760245910361</v>
+        <v>39.30248251927026</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5754443683307</v>
+        <v>332.1418195791713</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15116,28 +15284,28 @@
         <v>0.0368</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.136939309755103</v>
+        <v>-1.056794695123294</v>
       </c>
       <c r="J4" t="n">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K4" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1999903219608898</v>
+        <v>0.1725522635550238</v>
       </c>
       <c r="M4" t="n">
-        <v>12.18310187001538</v>
+        <v>12.36885961208245</v>
       </c>
       <c r="N4" t="n">
-        <v>240.6828447535973</v>
+        <v>251.8973509514715</v>
       </c>
       <c r="O4" t="n">
-        <v>15.51395645068006</v>
+        <v>15.8712743959479</v>
       </c>
       <c r="P4" t="n">
-        <v>331.5029446726079</v>
+        <v>330.5964578866995</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15194,28 +15362,28 @@
         <v>0.0401</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.8987832289152689</v>
+        <v>-0.838397426781174</v>
       </c>
       <c r="J5" t="n">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K5" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1794258605573147</v>
+        <v>0.1566724467045782</v>
       </c>
       <c r="M5" t="n">
-        <v>10.51514055562584</v>
+        <v>10.6742917144574</v>
       </c>
       <c r="N5" t="n">
-        <v>177.9066964699988</v>
+        <v>184.2016843212052</v>
       </c>
       <c r="O5" t="n">
-        <v>13.33816690816241</v>
+        <v>13.572092112906</v>
       </c>
       <c r="P5" t="n">
-        <v>330.1613522153131</v>
+        <v>329.4930175211644</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15272,28 +15440,28 @@
         <v>0.0316</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7535801244012039</v>
+        <v>-0.7064027739689284</v>
       </c>
       <c r="J6" t="n">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K6" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09409509057371157</v>
+        <v>0.08381134174597205</v>
       </c>
       <c r="M6" t="n">
-        <v>13.09810730816608</v>
+        <v>13.14748708715404</v>
       </c>
       <c r="N6" t="n">
-        <v>263.3000785699196</v>
+        <v>265.5923627460634</v>
       </c>
       <c r="O6" t="n">
-        <v>16.22652392134309</v>
+        <v>16.29700471700439</v>
       </c>
       <c r="P6" t="n">
-        <v>331.2358546344249</v>
+        <v>330.7146091740553</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15350,28 +15518,28 @@
         <v>0.0704</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3722889448919544</v>
+        <v>-0.3942937494614732</v>
       </c>
       <c r="J7" t="n">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K7" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0258064324382925</v>
+        <v>0.02935993712748608</v>
       </c>
       <c r="M7" t="n">
-        <v>12.3913788235798</v>
+        <v>12.33781724405402</v>
       </c>
       <c r="N7" t="n">
-        <v>243.6139479831076</v>
+        <v>242.005879532581</v>
       </c>
       <c r="O7" t="n">
-        <v>15.60813723616971</v>
+        <v>15.55653816029071</v>
       </c>
       <c r="P7" t="n">
-        <v>396.6109660124171</v>
+        <v>396.8584859278299</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15409,7 +15577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H368"/>
+  <dimension ref="A1:H372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28893,6 +29061,170 @@
         </is>
       </c>
     </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>-45.78819950701283,170.74136839806252</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>-45.78877918473654,170.74101132777417</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>-45.7893911214268,170.74081262335125</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>-45.78998596480226,170.74052756015942</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>-45.790600212454734,170.74033369080036</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>-45.791311127861555,170.7408498608926</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>-45.78819113018923,170.7413285396111</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>-45.78879644474533,170.74109790649848</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>-45.78940814206821,170.74090282505915</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>-45.79000072592843,170.74060517995898</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>-45.790621819970106,170.74046369983154</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>-45.79127690152331,170.7406072936674</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr"/>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>-45.78871635775811,170.7406961816888</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>-45.789343289198825,170.74055913646018</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>-45.7899444863661,170.74030945194352</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>-45.79056217538569,170.7401048301163</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>-45.79129937521593,170.74076656767602</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>-45.78821604678176,170.7414470975216</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>-45.788794743404495,170.74108937230747</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>-45.78940462748724,170.74088419933304</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>-45.790010780187856,170.74065804938562</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>-45.79059551243684,170.74030541166033</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>-45.79129885340182,170.7407628694917</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0503/nzd0503.xlsx
+++ b/data/nzd0503/nzd0503.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H372"/>
+  <dimension ref="A1:H374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10611,6 +10611,64 @@
         <v>379.7566666666667</v>
       </c>
       <c r="H372" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>168.7165217391304</v>
+      </c>
+      <c r="C373" t="n">
+        <v>340.28</v>
+      </c>
+      <c r="D373" t="n">
+        <v>338.8857142857143</v>
+      </c>
+      <c r="E373" t="n">
+        <v>342.4557142857143</v>
+      </c>
+      <c r="F373" t="n">
+        <v>347.19</v>
+      </c>
+      <c r="G373" t="n">
+        <v>400.07</v>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>166.68</v>
+      </c>
+      <c r="C374" t="inlineStr"/>
+      <c r="D374" t="n">
+        <v>321.7857142857143</v>
+      </c>
+      <c r="E374" t="n">
+        <v>318.4457142857143</v>
+      </c>
+      <c r="F374" t="n">
+        <v>320.03</v>
+      </c>
+      <c r="G374" t="n">
+        <v>406.67</v>
+      </c>
+      <c r="H374" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10627,7 +10685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B432"/>
+  <dimension ref="A1:B435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14955,6 +15013,36 @@
       </c>
       <c r="B432" t="n">
         <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -15128,28 +15216,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8723606235772107</v>
+        <v>-1.026194894932006</v>
       </c>
       <c r="J2" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K2" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008730977845159638</v>
+        <v>0.01197982442080991</v>
       </c>
       <c r="M2" t="n">
-        <v>54.31090837439534</v>
+        <v>54.91661515746681</v>
       </c>
       <c r="N2" t="n">
-        <v>4119.304318270147</v>
+        <v>4165.957293750766</v>
       </c>
       <c r="O2" t="n">
-        <v>64.18180675448571</v>
+        <v>64.54422742392046</v>
       </c>
       <c r="P2" t="n">
-        <v>290.8841620861018</v>
+        <v>292.6295880594895</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15206,28 +15294,28 @@
         <v>0.0321</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.59814881772722</v>
+        <v>-1.56218691531543</v>
       </c>
       <c r="J3" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K3" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06945434541529449</v>
+        <v>0.06662095640557864</v>
       </c>
       <c r="M3" t="n">
-        <v>24.27589507036171</v>
+        <v>24.28627657156533</v>
       </c>
       <c r="N3" t="n">
-        <v>1544.685132177545</v>
+        <v>1547.836862163488</v>
       </c>
       <c r="O3" t="n">
-        <v>39.30248251927026</v>
+        <v>39.3425579006181</v>
       </c>
       <c r="P3" t="n">
-        <v>332.1418195791713</v>
+        <v>331.7214041975433</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15284,28 +15372,28 @@
         <v>0.0368</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.056794695123294</v>
+        <v>-1.023239489153708</v>
       </c>
       <c r="J4" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K4" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1725522635550238</v>
+        <v>0.1624037218334171</v>
       </c>
       <c r="M4" t="n">
-        <v>12.36885961208245</v>
+        <v>12.43445518551196</v>
       </c>
       <c r="N4" t="n">
-        <v>251.8973509514715</v>
+        <v>255.3116060646205</v>
       </c>
       <c r="O4" t="n">
-        <v>15.8712743959479</v>
+        <v>15.97847320818296</v>
       </c>
       <c r="P4" t="n">
-        <v>330.5964578866995</v>
+        <v>330.2146361009452</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15362,28 +15450,28 @@
         <v>0.0401</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.838397426781174</v>
+        <v>-0.8095823567067261</v>
       </c>
       <c r="J5" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K5" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1566724467045782</v>
+        <v>0.1462568467498475</v>
       </c>
       <c r="M5" t="n">
-        <v>10.6742917144574</v>
+        <v>10.74885795883146</v>
       </c>
       <c r="N5" t="n">
-        <v>184.2016843212052</v>
+        <v>187.2700587770009</v>
       </c>
       <c r="O5" t="n">
-        <v>13.572092112906</v>
+        <v>13.68466509553672</v>
       </c>
       <c r="P5" t="n">
-        <v>329.4930175211644</v>
+        <v>329.1722717397038</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15440,28 +15528,28 @@
         <v>0.0316</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7064027739689284</v>
+        <v>-0.6797230022546596</v>
       </c>
       <c r="J6" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K6" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08381134174597205</v>
+        <v>0.07784292379456104</v>
       </c>
       <c r="M6" t="n">
-        <v>13.14748708715404</v>
+        <v>13.19095080540209</v>
       </c>
       <c r="N6" t="n">
-        <v>265.5923627460634</v>
+        <v>267.9356245588195</v>
       </c>
       <c r="O6" t="n">
-        <v>16.29700471700439</v>
+        <v>16.36873924768855</v>
       </c>
       <c r="P6" t="n">
-        <v>330.7146091740553</v>
+        <v>330.418112079465</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15518,28 +15606,28 @@
         <v>0.0704</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3942937494614732</v>
+        <v>-0.3730997535110066</v>
       </c>
       <c r="J7" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K7" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02935993712748608</v>
+        <v>0.02648382166051544</v>
       </c>
       <c r="M7" t="n">
-        <v>12.33781724405402</v>
+        <v>12.36786131933293</v>
       </c>
       <c r="N7" t="n">
-        <v>242.005879532581</v>
+        <v>242.2720826947654</v>
       </c>
       <c r="O7" t="n">
-        <v>15.55653816029071</v>
+        <v>15.56509179846895</v>
       </c>
       <c r="P7" t="n">
-        <v>396.8584859278299</v>
+        <v>396.6185149764781</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15577,7 +15665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H372"/>
+  <dimension ref="A1:H374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29225,6 +29313,86 @@
         </is>
       </c>
     </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>-45.78774554513534,170.73920847670192</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>-45.78879282014885,170.74107972496176</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>-45.78939728367695,170.74084528044278</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>-45.790013460645305,170.74067214435686</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>-45.790629722585976,170.74051124887805</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>-45.79133498874924,170.7410189689303</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>-45.787740272999415,170.73918339355794</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr"/>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>-45.78935721717077,170.74063294739682</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>-45.78995679304951,170.74037416455556</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>-45.79057323924912,170.7401713986357</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>-45.79134672935349,170.74110217821</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0503/nzd0503.xlsx
+++ b/data/nzd0503/nzd0503.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H374"/>
+  <dimension ref="A1:H375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10655,7 +10655,9 @@
       <c r="B374" t="n">
         <v>166.68</v>
       </c>
-      <c r="C374" t="inlineStr"/>
+      <c r="C374" t="n">
+        <v>142.21</v>
+      </c>
       <c r="D374" t="n">
         <v>321.7857142857143</v>
       </c>
@@ -10669,6 +10671,36 @@
         <v>406.67</v>
       </c>
       <c r="H374" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>151.0908695652174</v>
+      </c>
+      <c r="C375" t="n">
+        <v>137.56</v>
+      </c>
+      <c r="D375" t="n">
+        <v>323.0942857142857</v>
+      </c>
+      <c r="E375" t="n">
+        <v>329.0442857142857</v>
+      </c>
+      <c r="F375" t="n">
+        <v>327.76</v>
+      </c>
+      <c r="G375" t="n">
+        <v>408.7633333333333</v>
+      </c>
+      <c r="H375" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10685,7 +10717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B435"/>
+  <dimension ref="A1:B436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15043,6 +15075,16 @@
       </c>
       <c r="B435" t="n">
         <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>-0.43</v>
       </c>
     </row>
   </sheetData>
@@ -15216,28 +15258,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.026194894932006</v>
+        <v>-1.113806044075162</v>
       </c>
       <c r="J2" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K2" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01197982442080991</v>
+        <v>0.0140062535711859</v>
       </c>
       <c r="M2" t="n">
-        <v>54.91661515746681</v>
+        <v>55.28311030248236</v>
       </c>
       <c r="N2" t="n">
-        <v>4165.957293750766</v>
+        <v>4201.668799715852</v>
       </c>
       <c r="O2" t="n">
-        <v>64.54422742392046</v>
+        <v>64.82028077473787</v>
       </c>
       <c r="P2" t="n">
-        <v>292.6295880594895</v>
+        <v>293.6274627705964</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15294,28 +15336,28 @@
         <v>0.0321</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.56218691531543</v>
+        <v>-1.781400289837098</v>
       </c>
       <c r="J3" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K3" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06662095640557864</v>
+        <v>0.07825171035355027</v>
       </c>
       <c r="M3" t="n">
-        <v>24.28627657156533</v>
+        <v>25.71003820137369</v>
       </c>
       <c r="N3" t="n">
-        <v>1547.836862163488</v>
+        <v>1701.973147015789</v>
       </c>
       <c r="O3" t="n">
-        <v>39.3425579006181</v>
+        <v>41.25497723930761</v>
       </c>
       <c r="P3" t="n">
-        <v>331.7214041975433</v>
+        <v>334.2949619724236</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15372,28 +15414,28 @@
         <v>0.0368</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.023239489153708</v>
+        <v>-1.011220145031451</v>
       </c>
       <c r="J4" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K4" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1624037218334171</v>
+        <v>0.159373639780909</v>
       </c>
       <c r="M4" t="n">
-        <v>12.43445518551196</v>
+        <v>12.44770527521172</v>
       </c>
       <c r="N4" t="n">
-        <v>255.3116060646205</v>
+        <v>255.6729649022454</v>
       </c>
       <c r="O4" t="n">
-        <v>15.97847320818296</v>
+        <v>15.98977688719406</v>
       </c>
       <c r="P4" t="n">
-        <v>330.2146361009452</v>
+        <v>330.0772890257683</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15450,28 +15492,28 @@
         <v>0.0401</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.8095823567067261</v>
+        <v>-0.7962951820182356</v>
       </c>
       <c r="J5" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K5" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1462568467498475</v>
+        <v>0.1419807408155137</v>
       </c>
       <c r="M5" t="n">
-        <v>10.74885795883146</v>
+        <v>10.77955173807296</v>
       </c>
       <c r="N5" t="n">
-        <v>187.2700587770009</v>
+        <v>188.071711720797</v>
       </c>
       <c r="O5" t="n">
-        <v>13.68466509553672</v>
+        <v>13.71392400886038</v>
       </c>
       <c r="P5" t="n">
-        <v>329.1722717397038</v>
+        <v>329.0236734871873</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15528,28 +15570,28 @@
         <v>0.0316</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6797230022546596</v>
+        <v>-0.6702910484834209</v>
       </c>
       <c r="J6" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K6" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07784292379456104</v>
+        <v>0.07609247378890904</v>
       </c>
       <c r="M6" t="n">
-        <v>13.19095080540209</v>
+        <v>13.19290912080454</v>
       </c>
       <c r="N6" t="n">
-        <v>267.9356245588195</v>
+        <v>267.7752876976074</v>
       </c>
       <c r="O6" t="n">
-        <v>16.36873924768855</v>
+        <v>16.3638408601895</v>
       </c>
       <c r="P6" t="n">
-        <v>330.418112079465</v>
+        <v>330.3127830960751</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15606,28 +15648,28 @@
         <v>0.0704</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3730997535110066</v>
+        <v>-0.3592711176677569</v>
       </c>
       <c r="J7" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K7" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02648382166051544</v>
+        <v>0.02459866569754154</v>
       </c>
       <c r="M7" t="n">
-        <v>12.36786131933293</v>
+        <v>12.40096366304094</v>
       </c>
       <c r="N7" t="n">
-        <v>242.2720826947654</v>
+        <v>243.0031823743863</v>
       </c>
       <c r="O7" t="n">
-        <v>15.56509179846895</v>
+        <v>15.58855934249173</v>
       </c>
       <c r="P7" t="n">
-        <v>396.6185149764781</v>
+        <v>396.461416480211</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15665,7 +15707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H374"/>
+  <dimension ref="A1:H375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29366,7 +29408,11 @@
           <t>-45.787740272999415,170.73918339355794</t>
         </is>
       </c>
-      <c r="C374" t="inlineStr"/>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>-45.78830441050198,170.7386299399943</t>
+        </is>
+      </c>
       <c r="D374" t="inlineStr">
         <is>
           <t>-45.78935721717077,170.74063294739682</t>
@@ -29388,6 +29434,48 @@
         </is>
       </c>
       <c r="H374" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>-45.78769991576721,170.73899138771597</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>-45.78829294370681,170.73857242803496</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>-45.78936028325969,170.7406491960965</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>-45.789981807536456,170.74050569967997</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>-45.790589315057545,170.74026812324442</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>-45.79135045312857,170.74112856984792</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0503/nzd0503.xlsx
+++ b/data/nzd0503/nzd0503.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H375"/>
+  <dimension ref="A1:H377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10701,6 +10701,66 @@
         <v>408.7633333333333</v>
       </c>
       <c r="H375" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>170.8613043478261</v>
+      </c>
+      <c r="C376" t="n">
+        <v>174.27</v>
+      </c>
+      <c r="D376" t="n">
+        <v>313.4914285714286</v>
+      </c>
+      <c r="E376" t="n">
+        <v>333.3914285714285</v>
+      </c>
+      <c r="F376" t="n">
+        <v>338.04</v>
+      </c>
+      <c r="G376" t="n">
+        <v>414.8966666666667</v>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>170.4752173913043</v>
+      </c>
+      <c r="C377" t="n">
+        <v>170.46</v>
+      </c>
+      <c r="D377" t="n">
+        <v>319.9128571428571</v>
+      </c>
+      <c r="E377" t="n">
+        <v>330.8928571428572</v>
+      </c>
+      <c r="F377" t="n">
+        <v>329.88</v>
+      </c>
+      <c r="G377" t="n">
+        <v>412.55</v>
+      </c>
+      <c r="H377" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10717,7 +10777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B436"/>
+  <dimension ref="A1:B438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15085,6 +15145,26 @@
       </c>
       <c r="B436" t="n">
         <v>-0.43</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -15258,28 +15338,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.113806044075162</v>
+        <v>-1.254645923169518</v>
       </c>
       <c r="J2" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K2" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0140062535711859</v>
+        <v>0.01766136824409392</v>
       </c>
       <c r="M2" t="n">
-        <v>55.28311030248236</v>
+        <v>55.78349375492018</v>
       </c>
       <c r="N2" t="n">
-        <v>4201.668799715852</v>
+        <v>4237.206663736541</v>
       </c>
       <c r="O2" t="n">
-        <v>64.82028077473787</v>
+        <v>65.09382969019831</v>
       </c>
       <c r="P2" t="n">
-        <v>293.6274627705964</v>
+        <v>295.2342492031375</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15336,28 +15416,28 @@
         <v>0.0321</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.781400289837098</v>
+        <v>-1.946683640201176</v>
       </c>
       <c r="J3" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K3" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07825171035355027</v>
+        <v>0.08856463312444562</v>
       </c>
       <c r="M3" t="n">
-        <v>25.71003820137369</v>
+        <v>26.79822592580879</v>
       </c>
       <c r="N3" t="n">
-        <v>1701.973147015789</v>
+        <v>1785.673593311469</v>
       </c>
       <c r="O3" t="n">
-        <v>41.25497723930761</v>
+        <v>42.25723125467959</v>
       </c>
       <c r="P3" t="n">
-        <v>334.2949619724236</v>
+        <v>336.2404753023166</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15414,28 +15494,28 @@
         <v>0.0368</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.011220145031451</v>
+        <v>-0.9955459180459881</v>
       </c>
       <c r="J4" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K4" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L4" t="n">
-        <v>0.159373639780909</v>
+        <v>0.1561831615968603</v>
       </c>
       <c r="M4" t="n">
-        <v>12.44770527521172</v>
+        <v>12.43812624908824</v>
       </c>
       <c r="N4" t="n">
-        <v>255.6729649022454</v>
+        <v>255.1292845184549</v>
       </c>
       <c r="O4" t="n">
-        <v>15.98977688719406</v>
+        <v>15.97276696500812</v>
       </c>
       <c r="P4" t="n">
-        <v>330.0772890257683</v>
+        <v>329.8978683653679</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15492,28 +15572,28 @@
         <v>0.0401</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7962951820182356</v>
+        <v>-0.7664277425339977</v>
       </c>
       <c r="J5" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K5" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1419807408155137</v>
+        <v>0.1320565788833616</v>
       </c>
       <c r="M5" t="n">
-        <v>10.77955173807296</v>
+        <v>10.85788856160901</v>
       </c>
       <c r="N5" t="n">
-        <v>188.071711720797</v>
+        <v>190.4925867848874</v>
       </c>
       <c r="O5" t="n">
-        <v>13.71392400886038</v>
+        <v>13.80190518678082</v>
       </c>
       <c r="P5" t="n">
-        <v>329.0236734871873</v>
+        <v>328.6891140319009</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15570,28 +15650,28 @@
         <v>0.0316</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6702910484834209</v>
+        <v>-0.6441153584387582</v>
       </c>
       <c r="J6" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K6" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07609247378890904</v>
+        <v>0.07073662698430239</v>
       </c>
       <c r="M6" t="n">
-        <v>13.19290912080454</v>
+        <v>13.23139061189238</v>
       </c>
       <c r="N6" t="n">
-        <v>267.7752876976074</v>
+        <v>268.9572704941541</v>
       </c>
       <c r="O6" t="n">
-        <v>16.3638408601895</v>
+        <v>16.39991678314723</v>
       </c>
       <c r="P6" t="n">
-        <v>330.3127830960751</v>
+        <v>330.0200304612148</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15648,28 +15728,28 @@
         <v>0.0704</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3592711176677569</v>
+        <v>-0.3260475008461803</v>
       </c>
       <c r="J7" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K7" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02459866569754154</v>
+        <v>0.02022204988385001</v>
       </c>
       <c r="M7" t="n">
-        <v>12.40096366304094</v>
+        <v>12.49832089715452</v>
       </c>
       <c r="N7" t="n">
-        <v>243.0031823743863</v>
+        <v>245.8796743286354</v>
       </c>
       <c r="O7" t="n">
-        <v>15.58855934249173</v>
+        <v>15.6805508298859</v>
       </c>
       <c r="P7" t="n">
-        <v>396.461416480211</v>
+        <v>396.0834053657459</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15707,7 +15787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H375"/>
+  <dimension ref="A1:H377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29481,6 +29561,90 @@
         </is>
       </c>
     </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>-45.78775109753053,170.73923489326347</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>-45.788383468962216,170.73902646397988</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>-45.78933778293402,170.7405299562279</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>-45.78999206751262,170.74055965056928</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>-45.79061069388564,170.7403967558032</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>-45.79136136351761,170.74120589568753</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>-45.787750098032305,170.7392301379607</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>-45.78837407375149,170.73897934113677</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>-45.7893528289107,170.74060969189208</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>-45.78998617047386,170.74052864165932</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>-45.790593723932645,170.74029465057296</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>-45.791357189114,170.7411763101451</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0503/nzd0503.xlsx
+++ b/data/nzd0503/nzd0503.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H377"/>
+  <dimension ref="A1:H378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10761,6 +10761,30 @@
         <v>412.55</v>
       </c>
       <c r="H377" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr"/>
+      <c r="C378" t="inlineStr"/>
+      <c r="D378" t="n">
+        <v>299.7271428571428</v>
+      </c>
+      <c r="E378" t="n">
+        <v>308.0871428571429</v>
+      </c>
+      <c r="F378" t="n">
+        <v>305.95</v>
+      </c>
+      <c r="G378" t="inlineStr"/>
+      <c r="H378" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10777,7 +10801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B438"/>
+  <dimension ref="A1:B439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15165,6 +15189,16 @@
       </c>
       <c r="B438" t="n">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -15341,7 +15375,7 @@
         <v>-1.254645923169518</v>
       </c>
       <c r="J2" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K2" t="n">
         <v>252</v>
@@ -15419,7 +15453,7 @@
         <v>-1.946683640201176</v>
       </c>
       <c r="J3" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K3" t="n">
         <v>274</v>
@@ -15494,28 +15528,28 @@
         <v>0.0368</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.9955459180459881</v>
+        <v>-0.9982257479381792</v>
       </c>
       <c r="J4" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K4" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1561831615968603</v>
+        <v>0.1576247391820091</v>
       </c>
       <c r="M4" t="n">
-        <v>12.43812624908824</v>
+        <v>12.41408287348308</v>
       </c>
       <c r="N4" t="n">
-        <v>255.1292845184549</v>
+        <v>254.3813530251891</v>
       </c>
       <c r="O4" t="n">
-        <v>15.97276696500812</v>
+        <v>15.94933707165251</v>
       </c>
       <c r="P4" t="n">
-        <v>329.8978683653679</v>
+        <v>329.9286862207164</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15572,28 +15606,28 @@
         <v>0.0401</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7664277425339977</v>
+        <v>-0.7668861202802002</v>
       </c>
       <c r="J5" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K5" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1320565788833616</v>
+        <v>0.1328812441704391</v>
       </c>
       <c r="M5" t="n">
-        <v>10.85788856160901</v>
+        <v>10.82435489035612</v>
       </c>
       <c r="N5" t="n">
-        <v>190.4925867848874</v>
+        <v>189.8635469861715</v>
       </c>
       <c r="O5" t="n">
-        <v>13.80190518678082</v>
+        <v>13.77909819205058</v>
       </c>
       <c r="P5" t="n">
-        <v>328.6891140319009</v>
+        <v>328.6942738531471</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15650,28 +15684,28 @@
         <v>0.0316</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6441153584387582</v>
+        <v>-0.648720742331654</v>
       </c>
       <c r="J6" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K6" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07073662698430239</v>
+        <v>0.07203248009462537</v>
       </c>
       <c r="M6" t="n">
-        <v>13.23139061189238</v>
+        <v>13.21418411611804</v>
       </c>
       <c r="N6" t="n">
-        <v>268.9572704941541</v>
+        <v>268.254021208575</v>
       </c>
       <c r="O6" t="n">
-        <v>16.39991678314723</v>
+        <v>16.37846211365936</v>
       </c>
       <c r="P6" t="n">
-        <v>330.0200304612148</v>
+        <v>330.0717941562281</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15731,7 +15765,7 @@
         <v>-0.3260475008461803</v>
       </c>
       <c r="J7" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K7" t="n">
         <v>313</v>
@@ -15787,7 +15821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H377"/>
+  <dimension ref="A1:H378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29645,6 +29679,36 @@
         </is>
       </c>
     </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr"/>
+      <c r="C378" t="inlineStr"/>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>-45.78930553180675,170.74035904355955</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>-45.789932344860254,170.7402456081053</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>-45.79054395736161,170.73999521735163</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr"/>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0503/nzd0503.xlsx
+++ b/data/nzd0503/nzd0503.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H378"/>
+  <dimension ref="A1:H382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10773,7 +10773,9 @@
         </is>
       </c>
       <c r="B378" t="inlineStr"/>
-      <c r="C378" t="inlineStr"/>
+      <c r="C378" t="n">
+        <v>295.94</v>
+      </c>
       <c r="D378" t="n">
         <v>299.7271428571428</v>
       </c>
@@ -10785,6 +10787,124 @@
       </c>
       <c r="G378" t="inlineStr"/>
       <c r="H378" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr"/>
+      <c r="C379" t="n">
+        <v>334.62</v>
+      </c>
+      <c r="D379" t="n">
+        <v>343.6157142857143</v>
+      </c>
+      <c r="E379" t="n">
+        <v>339.0757142857143</v>
+      </c>
+      <c r="F379" t="n">
+        <v>328.35</v>
+      </c>
+      <c r="G379" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>282.9439130434782</v>
+      </c>
+      <c r="C380" t="n">
+        <v>321.26</v>
+      </c>
+      <c r="D380" t="n">
+        <v>326.6642857142857</v>
+      </c>
+      <c r="E380" t="n">
+        <v>321.2342857142857</v>
+      </c>
+      <c r="F380" t="n">
+        <v>333.4</v>
+      </c>
+      <c r="G380" t="n">
+        <v>398.51</v>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>339.14</v>
+      </c>
+      <c r="C381" t="n">
+        <v>319.61</v>
+      </c>
+      <c r="D381" t="n">
+        <v>331.0357142857143</v>
+      </c>
+      <c r="E381" t="n">
+        <v>325.4557142857143</v>
+      </c>
+      <c r="F381" t="n">
+        <v>317.4</v>
+      </c>
+      <c r="G381" t="n">
+        <v>398.81</v>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>315.5426086956522</v>
+      </c>
+      <c r="C382" t="n">
+        <v>330.53</v>
+      </c>
+      <c r="D382" t="n">
+        <v>326.2214285714285</v>
+      </c>
+      <c r="E382" t="n">
+        <v>331.5114285714285</v>
+      </c>
+      <c r="F382" t="n">
+        <v>323.09</v>
+      </c>
+      <c r="G382" t="n">
+        <v>391.83</v>
+      </c>
+      <c r="H382" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10801,7 +10921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B439"/>
+  <dimension ref="A1:B443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15199,6 +15319,46 @@
       </c>
       <c r="B439" t="n">
         <v>0.52</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -15372,28 +15532,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.254645923169518</v>
+        <v>-1.143614653611832</v>
       </c>
       <c r="J2" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K2" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01766136824409392</v>
+        <v>0.0149026410030606</v>
       </c>
       <c r="M2" t="n">
-        <v>55.78349375492018</v>
+        <v>55.55151691072268</v>
       </c>
       <c r="N2" t="n">
-        <v>4237.206663736541</v>
+        <v>4222.052036471699</v>
       </c>
       <c r="O2" t="n">
-        <v>65.09382969019831</v>
+        <v>64.97731940047773</v>
       </c>
       <c r="P2" t="n">
-        <v>295.2342492031375</v>
+        <v>293.9540870912615</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15450,28 +15610,28 @@
         <v>0.0321</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.946683640201176</v>
+        <v>-1.826216918665521</v>
       </c>
       <c r="J3" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K3" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08856463312444562</v>
+        <v>0.08013355827005908</v>
       </c>
       <c r="M3" t="n">
-        <v>26.79822592580879</v>
+        <v>26.60251144222206</v>
       </c>
       <c r="N3" t="n">
-        <v>1785.673593311469</v>
+        <v>1777.571806105968</v>
       </c>
       <c r="O3" t="n">
-        <v>42.25723125467959</v>
+        <v>42.1612595412657</v>
       </c>
       <c r="P3" t="n">
-        <v>336.2404753023166</v>
+        <v>334.809597153255</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15528,28 +15688,28 @@
         <v>0.0368</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.9982257479381792</v>
+        <v>-0.9311476538974003</v>
       </c>
       <c r="J4" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K4" t="n">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1576247391820091</v>
+        <v>0.1380615831282349</v>
       </c>
       <c r="M4" t="n">
-        <v>12.41408287348308</v>
+        <v>12.56027111123796</v>
       </c>
       <c r="N4" t="n">
-        <v>254.3813530251891</v>
+        <v>261.235565659371</v>
       </c>
       <c r="O4" t="n">
-        <v>15.94933707165251</v>
+        <v>16.16278335124774</v>
       </c>
       <c r="P4" t="n">
-        <v>329.9286862207164</v>
+        <v>329.1538493298179</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15606,28 +15766,28 @@
         <v>0.0401</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7668861202802002</v>
+        <v>-0.7162799659256036</v>
       </c>
       <c r="J5" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K5" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1328812441704391</v>
+        <v>0.1171503045486094</v>
       </c>
       <c r="M5" t="n">
-        <v>10.82435489035612</v>
+        <v>10.94799790449912</v>
       </c>
       <c r="N5" t="n">
-        <v>189.8635469861715</v>
+        <v>193.310200330085</v>
       </c>
       <c r="O5" t="n">
-        <v>13.77909819205058</v>
+        <v>13.90360386123271</v>
       </c>
       <c r="P5" t="n">
-        <v>328.6942738531471</v>
+        <v>328.1219388414103</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15684,28 +15844,28 @@
         <v>0.0316</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.648720742331654</v>
+        <v>-0.6185951574214998</v>
       </c>
       <c r="J6" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K6" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07203248009462537</v>
+        <v>0.06683936863198248</v>
       </c>
       <c r="M6" t="n">
-        <v>13.21418411611804</v>
+        <v>13.18502696702287</v>
       </c>
       <c r="N6" t="n">
-        <v>268.254021208575</v>
+        <v>267.1543289514224</v>
       </c>
       <c r="O6" t="n">
-        <v>16.37846211365936</v>
+        <v>16.34485634538959</v>
       </c>
       <c r="P6" t="n">
-        <v>330.0717941562281</v>
+        <v>329.7316836476826</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15762,28 +15922,28 @@
         <v>0.0704</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3260475008461803</v>
+        <v>-0.2981266300182933</v>
       </c>
       <c r="J7" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K7" t="n">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02022204988385001</v>
+        <v>0.01723174330938049</v>
       </c>
       <c r="M7" t="n">
-        <v>12.49832089715452</v>
+        <v>12.48774762263074</v>
       </c>
       <c r="N7" t="n">
-        <v>245.8796743286354</v>
+        <v>244.6863066436042</v>
       </c>
       <c r="O7" t="n">
-        <v>15.6805508298859</v>
+        <v>15.64245206620766</v>
       </c>
       <c r="P7" t="n">
-        <v>396.0834053657459</v>
+        <v>395.7629390205827</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15821,7 +15981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H378"/>
+  <dimension ref="A1:H382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29686,7 +29846,11 @@
         </is>
       </c>
       <c r="B378" t="inlineStr"/>
-      <c r="C378" t="inlineStr"/>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>-45.788683489142535,170.74053131160196</t>
+        </is>
+      </c>
       <c r="D378" t="inlineStr">
         <is>
           <t>-45.78930553180675,170.74035904355955</t>
@@ -29704,6 +29868,170 @@
       </c>
       <c r="G378" t="inlineStr"/>
       <c r="H378" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr"/>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>-45.788778864192906,170.74100971988412</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>-45.789408366331834,170.74090401355798</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>-45.79000548332918,170.74063019630827</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>-45.790590542056414,170.74027550584958</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>-45.791346604832256,170.74110129568714</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>-45.78804124767023,170.74061538442507</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>-45.78874592205136,170.74084447836137</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>-45.78936864804744,170.74069352525504</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>-45.78996337458153,170.74040877251812</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>-45.79060104431558,170.7403386959584</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>-45.79133221368856,170.74099930128781</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>-45.788186717241985,170.7413075420361</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>-45.788741853581904,170.7408240705527</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>-45.78937889062159,170.74074780587628</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>-45.78997333789539,170.74046116317442</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>-45.790567769712396,170.74013848975895</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>-45.79133274735434,170.7410030835266</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>-45.78812563337809,170.74101689653847</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>-45.78876877938568,170.74095913319874</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>-45.789367610399616,170.74068802623904</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>-45.78998763040475,170.74053631853576</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>-45.790579603032896,170.74020968805985</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>-45.79132033069849,170.7409150834575</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0503/nzd0503.xlsx
+++ b/data/nzd0503/nzd0503.xlsx
@@ -15523,10 +15523,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.115</v>
+        <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0368</v>
+        <v>0.0372</v>
       </c>
       <c r="H2" t="n">
         <v>0.2</v>
@@ -15601,13 +15601,13 @@
         <v>0.2001770081678305</v>
       </c>
       <c r="F3" t="n">
-        <v>0.025</v>
+        <v>0.145</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0187</v>
+        <v>0.0613</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0321</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>-1.826216918665521</v>
@@ -15679,13 +15679,13 @@
         <v>0.4003619379223829</v>
       </c>
       <c r="F4" t="n">
-        <v>0.035</v>
+        <v>0.105</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0298</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0368</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>-0.931134081299742</v>
@@ -15757,13 +15757,13 @@
         <v>0.6005468072060655</v>
       </c>
       <c r="F5" t="n">
-        <v>0.035</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0328</v>
+        <v>0.0502</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0401</v>
+        <v>0.0806</v>
       </c>
       <c r="I5" t="n">
         <v>-0.7162702041032931</v>
@@ -15835,13 +15835,13 @@
         <v>0.8007317369613771</v>
       </c>
       <c r="F6" t="n">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0244</v>
+        <v>0.0448</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0316</v>
+        <v>0.059</v>
       </c>
       <c r="I6" t="n">
         <v>-0.6185951574214998</v>
@@ -15913,13 +15913,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0518</v>
+        <v>0.0561</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0704</v>
+        <v>0.1629</v>
       </c>
       <c r="I7" t="n">
         <v>-0.2981087562843044</v>
